--- a/vdem.xlsx
+++ b/vdem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arturo/OneDrive - Vanderbilt/C LAPOP/lapop_edu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Arturo/Documents/GitHub/lapop_edu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{FFD9D234-9847-BB4E-8D08-FC74A77C7013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AD9F9656-B2DA-9842-BB3D-47E3F77C16E6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1D081-F599-0C40-815C-D790EC6C6284}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="800" windowWidth="25440" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="25440" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Electoral Democracy Index" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Argentina</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Brasil</t>
-  </si>
-  <si>
-    <t>covid</t>
   </si>
   <si>
     <t>country</t>
@@ -929,17 +926,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -950,11 +947,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -967,11 +961,8 @@
       <c r="D2">
         <v>0.71</v>
       </c>
-      <c r="E2">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -984,11 +975,8 @@
       <c r="D3">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E3">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1001,11 +989,8 @@
       <c r="D4">
         <v>0.63100000000000001</v>
       </c>
-      <c r="E4">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1018,11 +1003,8 @@
       <c r="D5">
         <v>0.36</v>
       </c>
-      <c r="E5">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1035,11 +1017,8 @@
       <c r="D6">
         <v>0.245</v>
       </c>
-      <c r="E6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1052,11 +1031,8 @@
       <c r="D7">
         <v>0.88900000000000001</v>
       </c>
-      <c r="E7">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1069,11 +1045,8 @@
       <c r="D8">
         <v>0.78300000000000003</v>
       </c>
-      <c r="E8">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1086,11 +1059,8 @@
       <c r="D9">
         <v>0.66700000000000004</v>
       </c>
-      <c r="E9">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1103,11 +1073,8 @@
       <c r="D10">
         <v>0.67300000000000004</v>
       </c>
-      <c r="E10">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1120,11 +1087,8 @@
       <c r="D11">
         <v>0.53700000000000003</v>
       </c>
-      <c r="E11">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1137,11 +1101,8 @@
       <c r="D12">
         <v>0.78400000000000003</v>
       </c>
-      <c r="E12">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1154,11 +1115,8 @@
       <c r="D13">
         <v>0.60099999999999998</v>
       </c>
-      <c r="E13">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1171,11 +1129,8 @@
       <c r="D14">
         <v>0.77300000000000002</v>
       </c>
-      <c r="E14">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1188,11 +1143,8 @@
       <c r="D15">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1205,11 +1157,8 @@
       <c r="D16">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E16">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1222,13 +1171,10 @@
       <c r="D17">
         <v>0.81200000000000006</v>
       </c>
-      <c r="E17">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>21</v>
@@ -1239,11 +1185,8 @@
       <c r="D18">
         <v>0.59799999999999998</v>
       </c>
-      <c r="E18">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1256,12 +1199,9 @@
       <c r="D19">
         <v>0.81</v>
       </c>
-      <c r="E19">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E19">
+  <sortState ref="A2:D19">
     <sortCondition ref="B2:B19"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
